--- a/Project 0 ERD - IE.xlsx
+++ b/Project 0 ERD - IE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vengeance\Documents\Revature\Project 0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vengeance\Documents\Revature\Projects\Project 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A474355F-AC1C-4239-AB38-019DD07D2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D0186-DA07-48F2-A7E6-CF15D65CAC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{B989C069-0A97-496C-AB35-7AC3EB71CBFA}"/>
+    <workbookView xWindow="5010" yWindow="4725" windowWidth="21945" windowHeight="11475" xr2:uid="{B989C069-0A97-496C-AB35-7AC3EB71CBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <t>Objects</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Shipments</t>
   </si>
   <si>
-    <t>Shipping_ID</t>
-  </si>
-  <si>
     <t>Carrier</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Length: 20</t>
   </si>
   <si>
-    <t>Length: 11</t>
-  </si>
-  <si>
     <t>Length: 8</t>
   </si>
   <si>
@@ -374,6 +368,9 @@
   </si>
   <si>
     <t>Subscriber Issue</t>
+  </si>
+  <si>
+    <t>Shippment_ID</t>
   </si>
 </sst>
 </file>
@@ -903,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F90CFF9-2F4C-46BF-8753-5E3A2BF8ECE4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -916,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A37D00-7517-4385-86A0-B6878832603D}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,58 +936,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -999,20 +996,20 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,42 +1018,42 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1075,29 +1072,29 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10">
         <v>4</v>
@@ -1106,35 +1103,39 @@
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,10 +1144,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,20 +1156,20 @@
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1177,322 +1178,322 @@
         <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>51</v>
+      <c r="A33" s="9"/>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="1" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>97</v>
+      <c r="C42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>53</v>
+      <c r="A44" s="9"/>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>92</v>
+      <c r="C46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>64</v>
+      <c r="C48" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1504,169 +1505,169 @@
         <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+      <c r="B61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="9"/>
-      <c r="B56" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
-      <c r="B59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,19 +1679,19 @@
         <v>58</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,105 +1700,93 @@
         <v>37</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
-      <c r="B72" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="3"/>
+      <c r="D72" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Project 0 ERD - IE.xlsx
+++ b/Project 0 ERD - IE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vengeance\Documents\Revature\Projects\Project 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D0186-DA07-48F2-A7E6-CF15D65CAC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4CE5E7-3210-4EA2-8CAB-CE14A751D224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="4725" windowWidth="21945" windowHeight="11475" xr2:uid="{B989C069-0A97-496C-AB35-7AC3EB71CBFA}"/>
+    <workbookView xWindow="4005" yWindow="3045" windowWidth="21945" windowHeight="11475" xr2:uid="{B989C069-0A97-496C-AB35-7AC3EB71CBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
   <si>
     <t>Objects</t>
   </si>
@@ -235,9 +235,6 @@
     <t>All 50 US states/territories.</t>
   </si>
   <si>
-    <t>Resolved, Not resolved</t>
-  </si>
-  <si>
     <t>Billing, Box, Cancellation, Complaint, Other, Shipping, Subscriber Info, and Subscription.</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>Standard</t>
   </si>
   <si>
-    <t>MailingAddress</t>
-  </si>
-  <si>
     <t>Blue, Green, and Gold</t>
   </si>
   <si>
@@ -371,6 +365,9 @@
   </si>
   <si>
     <t>Shippment_ID</t>
+  </si>
+  <si>
+    <t>Resolved, Not Resolved</t>
   </si>
 </sst>
 </file>
@@ -900,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F90CFF9-2F4C-46BF-8753-5E3A2BF8ECE4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -915,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A37D00-7517-4385-86A0-B6878832603D}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,28 +950,28 @@
         <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -987,7 +984,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,16 +1018,16 @@
         <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1040,7 +1037,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1053,7 +1050,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,7 +1059,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1072,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1085,7 +1082,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1091,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10">
         <v>4</v>
@@ -1109,7 +1106,7 @@
         <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1135,7 +1132,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1166,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,12 +1200,12 @@
         <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>54</v>
@@ -1231,49 +1228,47 @@
         <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>59</v>
@@ -1283,12 +1278,14 @@
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -1313,7 +1310,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,31 +1322,31 @@
         <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,13 +1362,13 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,7 +1384,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>57</v>
@@ -1405,7 +1402,7 @@
         <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1417,7 +1414,7 @@
         <v>57</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1440,7 @@
         <v>58</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,10 +1449,10 @@
         <v>19</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1467,7 +1464,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,7 +1472,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>63</v>
@@ -1493,7 +1490,7 @@
         <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,19 +1514,19 @@
         <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,7 +1538,7 @@
         <v>58</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,10 +1547,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,25 +1570,25 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,7 +1602,7 @@
         <v>63</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,7 +1614,7 @@
         <v>58</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1640,7 @@
         <v>63</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,7 +1652,7 @@
         <v>58</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,7 +1664,7 @@
         <v>57</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1679,7 +1676,7 @@
         <v>58</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,7 +1688,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,7 +1700,7 @@
         <v>58</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,10 +1709,10 @@
         <v>34</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1724,22 +1721,22 @@
         <v>33</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,7 +1748,7 @@
         <v>58</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1763,19 +1760,19 @@
         <v>58</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Project 0 ERD - IE.xlsx
+++ b/Project 0 ERD - IE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vengeance\Documents\Revature\Projects\Project 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4CE5E7-3210-4EA2-8CAB-CE14A751D224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA73CA-E413-4AC9-B35D-EBF9FE37D2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="3045" windowWidth="21945" windowHeight="11475" xr2:uid="{B989C069-0A97-496C-AB35-7AC3EB71CBFA}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{B989C069-0A97-496C-AB35-7AC3EB71CBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="ERD" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="114">
   <si>
     <t>Objects</t>
   </si>
@@ -368,6 +368,15 @@
   </si>
   <si>
     <t>Resolved, Not Resolved</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>Shipping_Date</t>
+  </si>
+  <si>
+    <t>BI-{000000}</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F90CFF9-2F4C-46BF-8753-5E3A2BF8ECE4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
@@ -910,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A37D00-7517-4385-86A0-B6878832603D}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,318 +1464,314 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+      <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
-      <c r="B55" s="1" t="s">
+      <c r="D56" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="3" t="s">
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="3" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="9"/>
-      <c r="B61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>58</v>
@@ -1775,15 +1780,39 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D72" s="3"/>
+      <c r="D74" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Project 0 ERD - IE.xlsx
+++ b/Project 0 ERD - IE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vengeance\Documents\Revature\Projects\Project 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA73CA-E413-4AC9-B35D-EBF9FE37D2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13AD04-D01A-4648-9AB7-5624648631FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{B989C069-0A97-496C-AB35-7AC3EB71CBFA}"/>
   </bookViews>
@@ -349,9 +349,6 @@
     <t>Length: 60</t>
   </si>
   <si>
-    <t>Toy, Book, Comic, Trading Cards, Video Game, Apparel, Pin, and Other.</t>
-  </si>
-  <si>
     <t>Product_Weight_Lbs</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>BI-{000000}</t>
+  </si>
+  <si>
+    <t>Toy, Book, Comic, Trading Cards, Video Game, Apparel, Pin, Movie, and Other.</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -1261,7 +1261,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>83</v>
@@ -1491,7 +1491,7 @@
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>63</v>
@@ -1533,7 +1533,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>83</v>
@@ -1593,7 +1593,7 @@
         <v>63</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,13 +1753,13 @@
         <v>98</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>70</v>
@@ -1795,7 +1795,7 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>58</v>
